--- a/文档/术语解释.xlsx
+++ b/文档/术语解释.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="介绍" sheetId="6" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="人员分工" sheetId="11" r:id="rId12"/>
     <sheet name="模板 (6)" sheetId="15" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="252">
   <si>
     <t>https://www.zhihu.com/question/21320284</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1227,10 +1227,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>JACKPOT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>主题题材</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1244,10 +1240,6 @@
   </si>
   <si>
     <t>symbols</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖池</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1745,12 +1737,16 @@
     <t xml:space="preserve">limit </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>奖池</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1958,11 +1954,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2036,6 +2037,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2070,6 +2072,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2245,23 +2248,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2272,31 +2275,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="109.2" customHeight="1">
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="109.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" ht="54.6" customHeight="1">
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -2331,22 +2334,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="55.2" customHeight="1">
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="55.2" customHeight="1">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -2354,12 +2357,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>74</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>87</v>
       </c>
@@ -2378,42 +2381,42 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>100</v>
       </c>
@@ -2421,15 +2424,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>104</v>
       </c>
@@ -2437,12 +2440,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>156</v>
       </c>
@@ -2450,13 +2453,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>81</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.95" customHeight="1">
+    <row r="33" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>92</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19.95" customHeight="1">
+    <row r="34" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19.95" customHeight="1">
+    <row r="35" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>96</v>
       </c>
@@ -2491,12 +2494,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19.95" customHeight="1">
+    <row r="36" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19.95" customHeight="1">
+    <row r="37" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>107</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.95" customHeight="1">
+    <row r="38" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>111</v>
       </c>
@@ -2512,9 +2515,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="19.95" customHeight="1">
+    <row r="39" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2528,23 +2531,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2555,52 +2558,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2609,23 +2612,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2636,54 +2639,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="208.2" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="208.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2692,23 +2695,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="109.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>133</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>112</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>115</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="43.8" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>119</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>121</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>126</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="42.6" customHeight="1">
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>128</v>
       </c>
@@ -2793,17 +2796,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="15" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="15" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>135</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>138</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>141</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>145</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>150</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>152</v>
       </c>
@@ -2880,17 +2883,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2902,23 +2905,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2929,52 +2932,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2983,23 +2986,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -3018,17 +3021,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="196.8" customHeight="1">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="196.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="33" customHeight="1">
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -3080,7 +3083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" ht="66.599999999999994" customHeight="1">
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -3088,21 +3091,21 @@
         <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="49.2" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -3121,10 +3124,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="48" customHeight="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -3157,8 +3160,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1"/>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -3191,7 +3194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="54" customHeight="1">
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>53</v>
       </c>
@@ -3221,10 +3224,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="11" customFormat="1" ht="19.95" customHeight="1">
+    <row r="24" spans="1:3" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1">
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="39" customHeight="1">
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
@@ -3256,7 +3259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" ht="139.80000000000001" customHeight="1">
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="139.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>78</v>
       </c>
@@ -3267,139 +3270,137 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="45.6" customHeight="1">
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="19.95" customHeight="1">
-      <c r="B31" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="19.95" customHeight="1">
+    <row r="31" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.95" customHeight="1">
-      <c r="C33" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A41" s="3" t="s">
+    <row r="45" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="3" t="s">
+    <row r="46" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:3" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="43.8" customHeight="1">
-      <c r="A47" s="3" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C48" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3415,23 +3416,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="81.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3442,40 +3442,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="62.4" customHeight="1">
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>62</v>
@@ -3484,158 +3484,158 @@
         <v>68</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="62.4" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="8" t="s">
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B10" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B14" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" ht="43.8" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="47.4" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3646,23 +3646,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3673,52 +3673,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3727,23 +3727,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3754,52 +3754,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3808,23 +3808,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3835,52 +3835,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3889,23 +3889,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3916,52 +3916,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3970,23 +3970,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3997,54 +3997,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -4056,23 +4056,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -4083,55 +4083,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
